--- a/Reports/heart/heart_distcorrgan_10_02.xlsx
+++ b/Reports/heart/heart_distcorrgan_10_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1007</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.09950000000000001</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.243</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.905</v>
+        <v>0.9963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.166</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7208</v>
+        <v>1.1327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0167</v>
+        <v>-0.1175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0321</v>
+        <v>0.8295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.046</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6207</v>
+        <v>0.6163</v>
       </c>
     </row>
     <row r="13">
